--- a/tarefa.xlsx
+++ b/tarefa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="planilha" sheetId="1" state="visible" r:id="rId2"/>
@@ -231,7 +231,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -901,7 +901,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1273,19 +1273,19 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>7.63427281528704</v>
+        <v>7.63</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>6.50500803936566</v>
+        <v>6.51</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>7.51737615122183</v>
+        <v>7.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>6.21190901042916</v>
+        <v>6.21</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>6.89579360862381</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,19 +1293,19 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>6.36051848160757</v>
+        <v>6.36</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>7.41552254917972</v>
+        <v>7.42</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>7.72680261376267</v>
+        <v>7.73</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>7.26678935370826</v>
+        <v>7.27</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>6.54724700060822</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,19 +1313,19 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>6.01968807687579</v>
+        <v>6.02</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6.55522954689017</v>
+        <v>6.56</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.3508865921024</v>
+        <v>7.35</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.71122712736662</v>
+        <v>6.71</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.62094897756724</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,17 +1333,17 @@
         <v>23</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>7.29757964055724</v>
+        <v>7.3</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.56904500148815</v>
+        <v>7.57</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="n">
-        <v>6.78593815661158</v>
+        <v>6.79</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.65665609290848</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,19 +1351,19 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>6.38332341767061</v>
+        <v>6.38</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.24329666683194</v>
+        <v>6.24</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.83927908569448</v>
+        <v>7.84</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.86530664577152</v>
+        <v>7.87</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.20714564385235</v>
+        <v>7.21</v>
       </c>
     </row>
   </sheetData>
@@ -1384,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
